--- a/vanity.xlsx
+++ b/vanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7CB547-AC3B-4A02-A192-9D77C31B8368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54147D72-F12A-442A-816D-A1AD2EEEB728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82E60442-FEA2-45F0-B418-6E595D8205F5}"/>
   </bookViews>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -72,13 +63,13 @@
     <t>RedirectionType</t>
   </si>
   <si>
-    <t>www.dellservicesevents.com</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>www.dell.com</t>
   </si>
 </sst>
 </file>
@@ -456,7 +447,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,13 +490,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -517,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>301</v>
